--- a/striver_30day_plan_with_patterns.xlsx
+++ b/striver_30day_plan_with_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Welcome\Desktop\Grinding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB0B7DA-0A51-4D71-BD88-053B2A2CDE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1482D9BD-BCE6-4E3B-83D6-F70434FF059A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{637AD51D-8E7F-4865-B5EE-0726E42CDEE3}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="342">
   <si>
     <t>Day</t>
   </si>
@@ -1040,6 +1040,12 @@
   </si>
   <si>
     <t>Final review (weak patterns / mixed)</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>InProgress</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +1938,7 @@
   <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I170" sqref="I170"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1988,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -2011,7 +2017,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -2034,7 +2040,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -2057,7 +2063,7 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -2080,7 +2086,7 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -2103,7 +2109,7 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -2126,7 +2132,7 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -2149,7 +2155,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -2172,7 +2178,7 @@
         <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">

--- a/striver_30day_plan_with_patterns.xlsx
+++ b/striver_30day_plan_with_patterns.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Welcome\Desktop\Grinding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1482D9BD-BCE6-4E3B-83D6-F70434FF059A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C118E023-1692-469B-8CC1-B08E7BFCCC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{637AD51D-8E7F-4865-B5EE-0726E42CDEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="striver_30day_plan_with_pattern" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1544,11 +1544,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1935,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE656E1-84E8-4CB9-BDC4-A47D9F771086}">
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2109,7 +2110,7 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -2132,7 +2133,7 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -2155,7 +2156,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -2178,7 +2179,7 @@
         <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -2201,7 +2202,7 @@
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -2224,7 +2225,7 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -2247,7 +2248,7 @@
         <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -2270,7 +2271,7 @@
         <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -2293,7 +2294,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -2316,7 +2317,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2339,7 +2340,7 @@
         <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -5423,6 +5424,9 @@
       <c r="G151" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G152" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G151 F152:F169">

--- a/striver_30day_plan_with_patterns.xlsx
+++ b/striver_30day_plan_with_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Welcome\Desktop\Grinding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C118E023-1692-469B-8CC1-B08E7BFCCC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3A4B91-6B0B-4CA9-8224-31D85C66AE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{637AD51D-8E7F-4865-B5EE-0726E42CDEE3}"/>
   </bookViews>
@@ -1939,7 +1939,7 @@
   <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2363,7 +2363,7 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -2386,7 +2386,7 @@
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -2409,7 +2409,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -2432,7 +2432,7 @@
         <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
